--- a/converted/sales_2025-09-18.xlsx
+++ b/converted/sales_2025-09-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alaa\Desktop\salesman dashboard\converted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC91AF3-B35A-4E64-8C66-682AF7B62D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBBD2C4-4604-442C-A26B-7A89B4F0BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D3C17E0-D4CC-4D35-A47A-FA057CFE80D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80B8E466-22D1-4714-90B7-BCE66471D487}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A656F6-C60A-4E13-8BFC-9181D751C552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F470DA-E465-443C-A3F9-EE88CDB18D2A}">
   <dimension ref="A1:H1545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
